--- a/biology/Médecine/Raphaël_Cherchève/Raphaël_Cherchève.xlsx
+++ b/biology/Médecine/Raphaël_Cherchève/Raphaël_Cherchève.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rapha%C3%ABl_Cherch%C3%A8ve</t>
+          <t>Raphaël_Cherchève</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Raphaël Cherchève, né à Paris 18e le 6 juin 1904 et mort à Saint-Cloud le 13 janvier 2000[1], est un médecin spécialiste en chirurgie maxillo-faciale du milieu du XXe siècle.
-Pionnier de l'implantologie en odontostomatologie[2], Il a reçu à Paris le docteur Alfonso Caycedo (formé à l'hypnose bien avant cette rencontre) lorsque celui-ci a créé la sophrologie en 1960. Il participa également au premier congrès mondial de la sophrologie et a écrit le livre Traité d'hypno-sophrologie en art dentaire (aujourd'hui épuisé, mais disponible d'occasion). Raphaël Cherchève a créé le Cercle de Lariboisière, cercle d'études sur l'hypnose. Il a enseigné l'hypnose à bon nombre de thérapeutes, surtout dentistes, pour dédramatiser le passage sur le fauteuil pour les patients. Le Dr Jean-Paul Guyonnaud, aujourd'hui décédé, et auteur d'ouvrages sur l'hypnose, est parmi ses plus célèbres élèves. Le Dr Cherchève (Président) et le Dr Guyonnaud (vice-président) ont créé à l'époque l'Académie d'Hypnose et de Sophrologie de Paris dont Jean Marc Descoubès, président de la Fédération Internationale de Relaxologie, a été membre.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raphaël Cherchève, né à Paris 18e le 6 juin 1904 et mort à Saint-Cloud le 13 janvier 2000, est un médecin spécialiste en chirurgie maxillo-faciale du milieu du XXe siècle.
+Pionnier de l'implantologie en odontostomatologie, Il a reçu à Paris le docteur Alfonso Caycedo (formé à l'hypnose bien avant cette rencontre) lorsque celui-ci a créé la sophrologie en 1960. Il participa également au premier congrès mondial de la sophrologie et a écrit le livre Traité d'hypno-sophrologie en art dentaire (aujourd'hui épuisé, mais disponible d'occasion). Raphaël Cherchève a créé le Cercle de Lariboisière, cercle d'études sur l'hypnose. Il a enseigné l'hypnose à bon nombre de thérapeutes, surtout dentistes, pour dédramatiser le passage sur le fauteuil pour les patients. Le Dr Jean-Paul Guyonnaud, aujourd'hui décédé, et auteur d'ouvrages sur l'hypnose, est parmi ses plus célèbres élèves. Le Dr Cherchève (Président) et le Dr Guyonnaud (vice-président) ont créé à l'époque l'Académie d'Hypnose et de Sophrologie de Paris dont Jean Marc Descoubès, président de la Fédération Internationale de Relaxologie, a été membre.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rapha%C3%ABl_Cherch%C3%A8ve</t>
+          <t>Raphaël_Cherchève</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Raphaël Cherchève est marié à la fille du peintre Georges Rouault[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raphaël Cherchève est marié à la fille du peintre Georges Rouault.
 </t>
         </is>
       </c>
